--- a/Souq/src/price/Souq/excel_3_calcas.xlsx
+++ b/Souq/src/price/Souq/excel_3_calcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,3706 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CALCA TATI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tati-04-23-06-350-035.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CALCA AYANNA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-ayanna-04-26-05-379-014.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CALCA ROSALIA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-rosala-04-26-05-384-008.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>828,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>598,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CALCA LISA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-lisa-04-26-05-369-035.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CALÇA RENESMEE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-renesmee-04-23-06-347-035.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>578,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>278,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CALCA INES</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-ines-04-26-05-368-004.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CALCA MELANIE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-melanie-04-23-06-346-021.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CALÇA SUCENA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sucena-04-26-05-386-051.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CALÇA YARA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-samanta-04-26-05-375-021.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CALÇA EDNA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-azucena-04-26-05-377-035.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>638,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CALCA JATHARA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-jathara-04-26-05-383-035.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CALÇA JEANS HEATHER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-jeans-heather-04-25-01-035-004.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CALÇA EDNA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-edna-04-26-05-377-030.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>598,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CALÇA JEANS LIGIA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-jeans-ligia-04-25-01-036-004.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CALCA LATIFA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-latifa-04-26-05-385-024.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CALÇA ALENE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-alene-04-23-06-125-029.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CALCA ALENE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-alene-04-23-06-125-052.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CALCA SARJA ATALANTA I</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-atalanta-i-04-25-01-032-035.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CALÇA EDNA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-azucena-04-26-05-377-021.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CALCA MARCELY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-marcely-04-26-05-358-009.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CALÇA AZUCENA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-azucena-04-26-05-363-024.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CALÇA EVA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-eva-04-26-05-378-054.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>598,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>468,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CALÇA TRICOT GARETH</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tricot-gareth-04-24-02-005-035.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CALÇA SCARLET</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-scarlet-04-23-06-345-008.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CALÇA ALE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-olivia-04-23-06-342-054.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CALCA JEANS GRETA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-jeans-greta-04-25-01-034-004.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CALÇA SAMANTA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-kauana-04-26-05-362-006.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-030.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>348,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CALCA KAILANI</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-kailani-04-26-05-352-054.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>319,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CALCA BANGKOK</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bangkok-04-26-05-231-016.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CALCA AMARILIS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-amarilis-04-26-05-355-024.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CALÇA AMELIA YANKA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-amelia-yanka-04-23-06-339-054.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>458,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CALCA OLIVIA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-olivia-04-23-06-341-014.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>528,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CALCA DANUBIA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-danubia-04-26-05-315-054.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>379,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CALCA BETA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-beta-04-26-05-151-007.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>669,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CALCA CAROL</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-carol-04-26-05-268-054.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CALCA TAUANE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tauane-04-23-06-116-043.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CALCA SARJA LINDALVA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-lindalva-04-25-01-011-016.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CALCA TAUANE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tauane-04-23-06-116-006.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CALCA BIANCA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bianca-04-26-05-269-006.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CALCA KAREN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-karen-04-23-06-343-035.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>658,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CALCA MIRELLE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mirelle-04-26-05-267-035.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CALCA SHIRA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-shira-04-26-05-299-054.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>297,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CALÇA SARJA ADRIANE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-adriane-04-23-06-355-007.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>658,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CALCA MINA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mina-04-26-05-344-023.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CALCA MARA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mara-04-26-05-324-009.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CALCA ELIANE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-eliane-04-26-05-258-053.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CALCA SARJA SELENE</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-selene-04-25-01-019-006.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>187,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CALCA MAYARA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mayara-04-26-05-302-004.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CALCA SARJA JOSEPHINE</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-josephine-04-25-01-029-054.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CALCA ALITA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-alita-04-26-05-288-035.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CALCA BERNINI</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bernini-04-26-05-183-002.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>539,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CALCA SARJA LIDI</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-lidi-04-25-01-027-054.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CALCA JOPLIN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-joplin-04-23-06-126-002.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CALÇA MEG</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-meg-04-26-05-401-042.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CALÇA DORA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-dora-04-26-05-233-002.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CALCA TRICOT ARICIA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tricot-aricia-04-24-02-001-001.html</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CALCA TESS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tess-04-26-05-287-005.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CALCA PAKI</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-paki-04-26-05-298-054.html</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>297,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CALCA MARIS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-maris-04-26-05-265-002.html</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CALCA ANNIE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-annie-04-26-05-266-035.html</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>308,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CALCA SUZANA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-suzana-04-26-05-274-007.html</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CALCA LINDSAY</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-lindsay-04-26-05-280-007.html</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CALCA ELSA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-elsa-04-26-05-294-002.html</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>229,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CALCA TRICOT ANELIA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-tricot-anelia-04-24-02-003-008.html</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CALCA ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-estefania-04-26-05-240-013.html</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>197,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CALCA LUDMILA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-ludmila-04-23-06-110-030.html</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>157,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CALCA NADINE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-nadine-04-26-05-341-035.html</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CALCA SARJA CARMENCITA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-carmencita-04-25-01-016-013.html</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CALCA LIKA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-lika-04-26-05-296-057.html</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>859,00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>418,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CALCA ANABEL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-anabel-04-26-05-126-004.html</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>137,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CALCA LAURINE</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-laurine-04-01-06-004-204.html</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CALÇA DORA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-dora-04-26-05-233-004.html</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>117,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CALÇA TEODORA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-teodora-04-26-05-232-001.html</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>189,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CALCA TEODORA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-teodora-04-26-05-232-006.html</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CALCA EKATERINA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-ekaterina-04-26-05-293-054.html</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CALCA JAMILE</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-jamile-04-26-05-307-054.html</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CALCA DE TRICOT CELESTE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-de-tricot-celeste-04-24-02-004-054.html</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>249,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CALCA VERONIKA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-veronika-04-26-05-246-035.html</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>147,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CALCA CARMELA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-carmela-04-26-05-284-057.html</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CALCA SARJA FREYA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-freya-04-25-01-018-001.html</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CALCA MARA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mara-04-26-05-324-006.html</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CALCA BEL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-bel-04-26-05-330-002.html</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CALCA DRIELLE</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-drielle-04-23-06-121-002.html</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CALCA SARJA FABIOLA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-fabiola-04-25-01-030-054.html</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>219,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CALCA SARJA ZAYA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-zaya-04-25-01-026-035.html</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CALCA ROBERTA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-roberta-04-23-06-333-035.html</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CALCA NAYANA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-nayana-04-26-05-310-054.html</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CALCA MARI</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mari-04-26-05-297-054.html</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>447,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CALCA RENATA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-renata-04-26-05-261-001.html</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CALCA NEIVA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-neiva-04-26-05-291-007.html</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CALCA MALLIKA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mallika-04-26-05-311-054.html</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CALCA SARJA LINA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-lina-04-25-01-012-006.html</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CALCA SARJA MAHARA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-mahara-04-25-01-017-042.html</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>379,00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CALCA MELINDA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-melinda-04-26-05-332-054.html</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CALCA SARJA SELENE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sarja-selene-04-25-01-019-004.html</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CALCA KAMI</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-kami-04-26-05-300-054.html</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>488,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CALCA SONIA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-sonia-04-26-05-292-005.html</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CALCA MARA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-mara-04-26-05-324-004.html</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Calças</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/calcas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CALCA KALI</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/calca-kali-04-26-05-306-054.html</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
